--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vtn-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vtn-Plaur.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.021590333333334</v>
+        <v>12.056684</v>
       </c>
       <c r="H2">
-        <v>6.064771</v>
+        <v>36.170052</v>
       </c>
       <c r="I2">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J2">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.98117766666667</v>
+        <v>2.843949</v>
       </c>
       <c r="N2">
-        <v>170.943533</v>
+        <v>8.531846999999999</v>
       </c>
       <c r="O2">
-        <v>0.952030123851636</v>
+        <v>0.4976240243095911</v>
       </c>
       <c r="P2">
-        <v>0.9520301238516359</v>
+        <v>0.4976240243095912</v>
       </c>
       <c r="Q2">
-        <v>115.1925979528826</v>
+        <v>34.28859440511599</v>
       </c>
       <c r="R2">
-        <v>1036.733381575943</v>
+        <v>308.5973496460439</v>
       </c>
       <c r="S2">
-        <v>0.01062715381084758</v>
+        <v>0.03138923996367713</v>
       </c>
       <c r="T2">
-        <v>0.01062715381084758</v>
+        <v>0.03138923996367714</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.021590333333334</v>
+        <v>12.056684</v>
       </c>
       <c r="H3">
-        <v>6.064771</v>
+        <v>36.170052</v>
       </c>
       <c r="I3">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J3">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.550157</v>
       </c>
       <c r="O3">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852895</v>
       </c>
       <c r="P3">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852897</v>
       </c>
       <c r="Q3">
-        <v>5.087774802116335</v>
+        <v>30.343285699796</v>
       </c>
       <c r="R3">
-        <v>45.78997321904701</v>
+        <v>273.089571298164</v>
       </c>
       <c r="S3">
-        <v>0.0004693753447522787</v>
+        <v>0.02777753631030147</v>
       </c>
       <c r="T3">
-        <v>0.0004693753447522787</v>
+        <v>0.02777753631030148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.021590333333334</v>
+        <v>12.056684</v>
       </c>
       <c r="H4">
-        <v>6.064771</v>
+        <v>36.170052</v>
       </c>
       <c r="I4">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J4">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3543876666666667</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N4">
         <v>1.063163</v>
       </c>
       <c r="O4">
-        <v>0.005921038279725253</v>
+        <v>0.06200948640511928</v>
       </c>
       <c r="P4">
-        <v>0.005921038279725253</v>
+        <v>0.0620094864051193</v>
       </c>
       <c r="Q4">
-        <v>0.716426681185889</v>
+        <v>4.272740110497332</v>
       </c>
       <c r="R4">
-        <v>6.447840130673001</v>
+        <v>38.45466099447599</v>
       </c>
       <c r="S4">
-        <v>6.609432090655424E-05</v>
+        <v>0.003911448309786013</v>
       </c>
       <c r="T4">
-        <v>6.609432090655424E-05</v>
+        <v>0.003911448309786014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>75.421902</v>
       </c>
       <c r="I5">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J5">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.98117766666667</v>
+        <v>2.843949</v>
       </c>
       <c r="N5">
-        <v>170.943533</v>
+        <v>8.531846999999999</v>
       </c>
       <c r="O5">
-        <v>0.952030123851636</v>
+        <v>0.4976240243095911</v>
       </c>
       <c r="P5">
-        <v>0.9520301238516359</v>
+        <v>0.4976240243095912</v>
       </c>
       <c r="Q5">
-        <v>1432.542932606641</v>
+        <v>71.498680923666</v>
       </c>
       <c r="R5">
-        <v>12892.88639345977</v>
+        <v>643.4881283129939</v>
       </c>
       <c r="S5">
-        <v>0.1321600029515826</v>
+        <v>0.0654529382593904</v>
       </c>
       <c r="T5">
-        <v>0.1321600029515826</v>
+        <v>0.06545293825939041</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>75.421902</v>
       </c>
       <c r="I6">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J6">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.550157</v>
       </c>
       <c r="O6">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852895</v>
       </c>
       <c r="P6">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852897</v>
       </c>
       <c r="Q6">
         <v>63.27191125984601</v>
@@ -818,10 +818,10 @@
         <v>569.447201338614</v>
       </c>
       <c r="S6">
-        <v>0.005837183506701668</v>
+        <v>0.0579218028604714</v>
       </c>
       <c r="T6">
-        <v>0.005837183506701667</v>
+        <v>0.05792180286047141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>75.421902</v>
       </c>
       <c r="I7">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J7">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3543876666666667</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N7">
         <v>1.063163</v>
       </c>
       <c r="O7">
-        <v>0.005921038279725253</v>
+        <v>0.06200948640511928</v>
       </c>
       <c r="P7">
-        <v>0.005921038279725253</v>
+        <v>0.0620094864051193</v>
       </c>
       <c r="Q7">
-        <v>8.909530621780668</v>
+        <v>8.909530621780666</v>
       </c>
       <c r="R7">
-        <v>80.18577559602601</v>
+        <v>80.18577559602599</v>
       </c>
       <c r="S7">
-        <v>0.0008219534413039975</v>
+        <v>0.008156163864479551</v>
       </c>
       <c r="T7">
-        <v>0.0008219534413039973</v>
+        <v>0.008156163864479555</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>153.9412893333333</v>
       </c>
       <c r="H8">
-        <v>461.823868</v>
+        <v>461.8238680000001</v>
       </c>
       <c r="I8">
-        <v>0.8500182366239053</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="J8">
-        <v>0.8500182366239052</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.98117766666667</v>
+        <v>2.843949</v>
       </c>
       <c r="N8">
-        <v>170.943533</v>
+        <v>8.531846999999999</v>
       </c>
       <c r="O8">
-        <v>0.952030123851636</v>
+        <v>0.4976240243095911</v>
       </c>
       <c r="P8">
-        <v>0.9520301238516359</v>
+        <v>0.4976240243095912</v>
       </c>
       <c r="Q8">
-        <v>8771.755957738405</v>
+        <v>437.801175858244</v>
       </c>
       <c r="R8">
-        <v>78945.80361964565</v>
+        <v>3940.210582724196</v>
       </c>
       <c r="S8">
-        <v>0.8092429670892057</v>
+        <v>0.4007818460865236</v>
       </c>
       <c r="T8">
-        <v>0.8092429670892056</v>
+        <v>0.4007818460865237</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>153.9412893333333</v>
       </c>
       <c r="H9">
-        <v>461.823868</v>
+        <v>461.8238680000001</v>
       </c>
       <c r="I9">
-        <v>0.8500182366239053</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="J9">
-        <v>0.8500182366239052</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>7.550157</v>
       </c>
       <c r="O9">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852895</v>
       </c>
       <c r="P9">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852897</v>
       </c>
       <c r="Q9">
         <v>387.4269677496974</v>
       </c>
       <c r="R9">
-        <v>3486.842709747276</v>
+        <v>3486.842709747277</v>
       </c>
       <c r="S9">
-        <v>0.0357422790171848</v>
+        <v>0.3546671501145167</v>
       </c>
       <c r="T9">
-        <v>0.03574227901718479</v>
+        <v>0.3546671501145168</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>153.9412893333333</v>
       </c>
       <c r="H10">
-        <v>461.823868</v>
+        <v>461.8238680000001</v>
       </c>
       <c r="I10">
-        <v>0.8500182366239053</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="J10">
-        <v>0.8500182366239052</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3543876666666667</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N10">
         <v>1.063163</v>
       </c>
       <c r="O10">
-        <v>0.005921038279725253</v>
+        <v>0.06200948640511928</v>
       </c>
       <c r="P10">
-        <v>0.005921038279725253</v>
+        <v>0.0620094864051193</v>
       </c>
       <c r="Q10">
-        <v>54.55489433049824</v>
+        <v>54.55489433049821</v>
       </c>
       <c r="R10">
         <v>490.994048974484</v>
       </c>
       <c r="S10">
-        <v>0.005032990517514701</v>
+        <v>0.04994187423085372</v>
       </c>
       <c r="T10">
-        <v>0.005032990517514701</v>
+        <v>0.04994187423085374</v>
       </c>
     </row>
   </sheetData>
